--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H2">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I2">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J2">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N2">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O2">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P2">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q2">
-        <v>12.394485861568</v>
+        <v>0.7408313867586666</v>
       </c>
       <c r="R2">
-        <v>111.550372754112</v>
+        <v>6.667482480828</v>
       </c>
       <c r="S2">
-        <v>0.0003904865122356187</v>
+        <v>0.0001083308907396993</v>
       </c>
       <c r="T2">
-        <v>0.0003904865122356188</v>
+        <v>0.0001083308907396994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H3">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I3">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J3">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.168486</v>
       </c>
       <c r="O3">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P3">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q3">
-        <v>23.51063457508267</v>
+        <v>1.731908909229333</v>
       </c>
       <c r="R3">
-        <v>211.595711175744</v>
+        <v>15.587180183064</v>
       </c>
       <c r="S3">
-        <v>0.0007406991946424119</v>
+        <v>0.0002532549756533921</v>
       </c>
       <c r="T3">
-        <v>0.0007406991946424122</v>
+        <v>0.0002532549756533921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H4">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I4">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J4">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N4">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O4">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P4">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q4">
-        <v>26.866753880864</v>
+        <v>3.615585908607111</v>
       </c>
       <c r="R4">
-        <v>241.800784927776</v>
+        <v>32.540273177464</v>
       </c>
       <c r="S4">
-        <v>0.0008464332554980341</v>
+        <v>0.0005287028182472338</v>
       </c>
       <c r="T4">
-        <v>0.0008464332554980342</v>
+        <v>0.000528702818247234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H5">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I5">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J5">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N5">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O5">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P5">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q5">
-        <v>20.71726467858134</v>
+        <v>0.963809838004</v>
       </c>
       <c r="R5">
-        <v>186.455382107232</v>
+        <v>8.674288542036001</v>
       </c>
       <c r="S5">
-        <v>0.0006526944737970743</v>
+        <v>0.0001409367639126113</v>
       </c>
       <c r="T5">
-        <v>0.0006526944737970743</v>
+        <v>0.0001409367639126114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H6">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I6">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J6">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N6">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O6">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P6">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q6">
-        <v>65.31242624678401</v>
+        <v>1.711549705435111</v>
       </c>
       <c r="R6">
-        <v>587.8118362210561</v>
+        <v>15.403947348916</v>
       </c>
       <c r="S6">
-        <v>0.002057658689162147</v>
+        <v>0.0002502778735472988</v>
       </c>
       <c r="T6">
-        <v>0.002057658689162147</v>
+        <v>0.0002502778735472989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H7">
         <v>2.411965</v>
       </c>
       <c r="I7">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J7">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N7">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O7">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P7">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q7">
-        <v>2.56691445553</v>
+        <v>2.082771172928333</v>
       </c>
       <c r="R7">
-        <v>23.10223009977</v>
+        <v>18.744940556355</v>
       </c>
       <c r="S7">
-        <v>8.08702744222016E-05</v>
+        <v>0.0003045611463054757</v>
       </c>
       <c r="T7">
-        <v>8.087027442220161E-05</v>
+        <v>0.0003045611463054757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H8">
         <v>2.411965</v>
       </c>
       <c r="I8">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J8">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>18.168486</v>
       </c>
       <c r="O8">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P8">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q8">
-        <v>4.869083592776668</v>
+        <v>4.869083592776667</v>
       </c>
       <c r="R8">
-        <v>43.82175233499001</v>
+        <v>43.82175233499</v>
       </c>
       <c r="S8">
-        <v>0.0001533997852885933</v>
+        <v>0.0007120002906455978</v>
       </c>
       <c r="T8">
-        <v>0.0001533997852885933</v>
+        <v>0.0007120002906455978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H9">
         <v>2.411965</v>
       </c>
       <c r="I9">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J9">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N9">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O9">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P9">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q9">
-        <v>5.564140350815001</v>
+        <v>10.16484754599889</v>
       </c>
       <c r="R9">
-        <v>50.07726315733501</v>
+        <v>91.48362791398999</v>
       </c>
       <c r="S9">
-        <v>0.0001752974494824552</v>
+        <v>0.001486393541868148</v>
       </c>
       <c r="T9">
-        <v>0.0001752974494824552</v>
+        <v>0.001486393541868149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H10">
         <v>2.411965</v>
       </c>
       <c r="I10">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J10">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N10">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O10">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P10">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q10">
-        <v>4.290572983538334</v>
+        <v>2.709652132265</v>
       </c>
       <c r="R10">
-        <v>38.61515685184501</v>
+        <v>24.386869190385</v>
       </c>
       <c r="S10">
-        <v>0.0001351738909178363</v>
+        <v>0.0003962292018529399</v>
       </c>
       <c r="T10">
-        <v>0.0001351738909178363</v>
+        <v>0.0003962292018529399</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H11">
         <v>2.411965</v>
       </c>
       <c r="I11">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J11">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N11">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O11">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P11">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q11">
-        <v>13.52629007214</v>
+        <v>4.81184578735389</v>
       </c>
       <c r="R11">
-        <v>121.73661064926</v>
+        <v>43.306612086185</v>
       </c>
       <c r="S11">
-        <v>0.00042614384273371</v>
+        <v>0.0007036304745764319</v>
       </c>
       <c r="T11">
-        <v>0.00042614384273371</v>
+        <v>0.000703630474576432</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H12">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I12">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J12">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N12">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O12">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P12">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q12">
-        <v>1815.992955422706</v>
+        <v>142.131328356719</v>
       </c>
       <c r="R12">
-        <v>16343.93659880435</v>
+        <v>1279.181955210471</v>
       </c>
       <c r="S12">
-        <v>0.05721259948395766</v>
+        <v>0.02078369474903991</v>
       </c>
       <c r="T12">
-        <v>0.05721259948395767</v>
+        <v>0.02078369474903992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H13">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I13">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J13">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>18.168486</v>
       </c>
       <c r="O13">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P13">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q13">
-        <v>3444.688811034423</v>
+        <v>332.273332719622</v>
       </c>
       <c r="R13">
-        <v>31002.1992993098</v>
+        <v>2990.459994476598</v>
       </c>
       <c r="S13">
-        <v>0.1085244305073357</v>
+        <v>0.04858793342983864</v>
       </c>
       <c r="T13">
-        <v>0.1085244305073358</v>
+        <v>0.04858793342983864</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H14">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I14">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J14">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N14">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O14">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P14">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q14">
-        <v>3936.414654681964</v>
+        <v>693.6639526391552</v>
       </c>
       <c r="R14">
-        <v>35427.73189213767</v>
+        <v>6242.975573752397</v>
       </c>
       <c r="S14">
-        <v>0.1240161831953133</v>
+        <v>0.1014336530640266</v>
       </c>
       <c r="T14">
-        <v>0.1240161831953133</v>
+        <v>0.1014336530640266</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H15">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I15">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J15">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N15">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O15">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P15">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q15">
-        <v>3035.414871752641</v>
+        <v>184.910595052053</v>
       </c>
       <c r="R15">
-        <v>27318.73384577377</v>
+        <v>1664.195355468477</v>
       </c>
       <c r="S15">
-        <v>0.09563031332619298</v>
+        <v>0.02703925593223039</v>
       </c>
       <c r="T15">
-        <v>0.09563031332619298</v>
+        <v>0.02703925593223039</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H16">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I16">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J16">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N16">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O16">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P16">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q16">
-        <v>9569.328432855231</v>
+        <v>328.3673417866264</v>
       </c>
       <c r="R16">
-        <v>86123.95589569707</v>
+        <v>2955.306076079637</v>
       </c>
       <c r="S16">
-        <v>0.3014803297141408</v>
+        <v>0.04801676503098886</v>
       </c>
       <c r="T16">
-        <v>0.3014803297141409</v>
+        <v>0.04801676503098887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H17">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I17">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J17">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N17">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O17">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P17">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q17">
-        <v>1.128003930946</v>
+        <v>0.1288029597963333</v>
       </c>
       <c r="R17">
-        <v>10.152035378514</v>
+        <v>1.159226638167</v>
       </c>
       <c r="S17">
-        <v>3.553760322959037E-05</v>
+        <v>1.883470329962129E-05</v>
       </c>
       <c r="T17">
-        <v>3.553760322959037E-05</v>
+        <v>1.883470329962129E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H18">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I18">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J18">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>18.168486</v>
       </c>
       <c r="O18">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P18">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q18">
-        <v>2.139668277968667</v>
+        <v>0.3011143933606667</v>
       </c>
       <c r="R18">
-        <v>19.257014501718</v>
+        <v>2.710029540246</v>
       </c>
       <c r="S18">
-        <v>6.740994443310279E-05</v>
+        <v>4.403159886357721E-05</v>
       </c>
       <c r="T18">
-        <v>6.740994443310279E-05</v>
+        <v>4.403159886357721E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H19">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I19">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J19">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N19">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O19">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P19">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q19">
-        <v>2.445103760483</v>
+        <v>0.6286155996495555</v>
       </c>
       <c r="R19">
-        <v>22.005933844347</v>
+        <v>5.657540396846</v>
       </c>
       <c r="S19">
-        <v>7.703264581919617E-05</v>
+        <v>9.192170993301929E-05</v>
       </c>
       <c r="T19">
-        <v>7.703264581919618E-05</v>
+        <v>9.19217099330193E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H20">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I20">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J20">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N20">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O20">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P20">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q20">
-        <v>1.885447791614333</v>
+        <v>0.167570599781</v>
       </c>
       <c r="R20">
-        <v>16.969030124529</v>
+        <v>1.508135398029</v>
       </c>
       <c r="S20">
-        <v>5.940076420860028E-05</v>
+        <v>2.450364909009308E-05</v>
       </c>
       <c r="T20">
-        <v>5.940076420860027E-05</v>
+        <v>2.450364909009308E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H21">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I21">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J21">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N21">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O21">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P21">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q21">
-        <v>5.943987864348</v>
+        <v>0.2975746868165556</v>
       </c>
       <c r="R21">
-        <v>53.495890779132</v>
+        <v>2.678172181349</v>
       </c>
       <c r="S21">
-        <v>0.0001872644913103692</v>
+        <v>4.351399179436482E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001872644913103692</v>
+        <v>4.351399179436483E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H22">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I22">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J22">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N22">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O22">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P22">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q22">
-        <v>811.8083312709201</v>
+        <v>433.0118309051123</v>
       </c>
       <c r="R22">
-        <v>7306.274981438281</v>
+        <v>3897.106478146011</v>
       </c>
       <c r="S22">
-        <v>0.02557590588446533</v>
+        <v>0.06331880395620959</v>
       </c>
       <c r="T22">
-        <v>0.02557590588446533</v>
+        <v>0.06331880395620959</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H23">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I23">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J23">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>18.168486</v>
       </c>
       <c r="O23">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P23">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q23">
-        <v>1539.888724283374</v>
+        <v>1012.291138240569</v>
       </c>
       <c r="R23">
-        <v>13858.99851855036</v>
+        <v>9110.620244165118</v>
       </c>
       <c r="S23">
-        <v>0.04851397499599883</v>
+        <v>0.1480261266646747</v>
       </c>
       <c r="T23">
-        <v>0.04851397499599883</v>
+        <v>0.1480261266646746</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H24">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I24">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J24">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N24">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O24">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P24">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q24">
-        <v>1759.70628215566</v>
+        <v>2113.289882236991</v>
       </c>
       <c r="R24">
-        <v>15837.35653940094</v>
+        <v>19019.60894013292</v>
       </c>
       <c r="S24">
-        <v>0.05543929585725815</v>
+        <v>0.3090238607945283</v>
       </c>
       <c r="T24">
-        <v>0.05543929585725815</v>
+        <v>0.3090238607945283</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H25">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I25">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J25">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N25">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O25">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P25">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q25">
-        <v>1356.929868254287</v>
+        <v>563.341497212273</v>
       </c>
       <c r="R25">
-        <v>12212.36881428858</v>
+        <v>5070.073474910458</v>
       </c>
       <c r="S25">
-        <v>0.04274988228805179</v>
+        <v>0.08237675572933259</v>
       </c>
       <c r="T25">
-        <v>0.04274988228805178</v>
+        <v>0.08237675572933259</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H26">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I26">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J26">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N26">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O26">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P26">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q26">
-        <v>4277.803238862962</v>
+        <v>1000.391296700002</v>
       </c>
       <c r="R26">
-        <v>38500.22914976665</v>
+        <v>9003.521670300017</v>
       </c>
       <c r="S26">
-        <v>0.1347715819301043</v>
+        <v>0.1462860270188009</v>
       </c>
       <c r="T26">
-        <v>0.1347715819301043</v>
+        <v>0.1462860270188009</v>
       </c>
     </row>
   </sheetData>
